--- a/syab07200_field.xlsx
+++ b/syab07200_field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994CA434-F209-4B3D-A9AD-8CAF1DE537E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA9D52F-7C88-445C-8C5E-9212C634C7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16230" yWindow="7965" windowWidth="16065" windowHeight="18390" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="561">
   <si>
     <t>Charlabels</t>
   </si>
@@ -2125,17 +2125,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809D0959-4709-DE49-8CCD-872CF8E778E2}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D298"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.625" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="1" max="1" width="40.625" customWidth="1"/>
+    <col min="2" max="2" width="45.875" customWidth="1"/>
     <col min="3" max="4" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2153,7 +2152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2164,7 +2163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2175,7 +2174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2198,7 +2197,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2209,7 +2208,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2221,7 +2220,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2233,7 +2232,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2245,7 +2244,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2257,7 +2256,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2280,7 +2279,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2291,7 +2290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2303,7 +2302,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2315,7 +2314,7 @@
       </c>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2327,7 +2326,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2339,7 +2338,7 @@
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2358,10 +2357,12 @@
       <c r="B19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2380,7 +2381,9 @@
       <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2390,7 +2393,9 @@
       <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2400,10 +2405,12 @@
       <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -2415,7 +2422,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2434,10 +2441,12 @@
       <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -2448,7 +2457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -2466,10 +2475,12 @@
       <c r="B29" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -2481,7 +2492,7 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -2499,7 +2510,9 @@
       <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2509,7 +2522,9 @@
       <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2519,8 +2534,11 @@
       <c r="B34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2539,10 +2557,12 @@
       <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -2553,7 +2573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -2564,7 +2584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -2576,7 +2596,7 @@
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -2588,7 +2608,7 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -2600,7 +2620,7 @@
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -2611,7 +2631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -2629,7 +2649,9 @@
       <c r="B44" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2639,8 +2661,11 @@
       <c r="B45" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -2652,7 +2677,7 @@
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -2671,10 +2696,12 @@
       <c r="B48" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -2692,9 +2719,11 @@
       <c r="B50" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -2706,7 +2735,7 @@
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -2718,7 +2747,7 @@
       </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -2737,10 +2766,12 @@
       <c r="B54" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -2752,7 +2783,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -2770,9 +2801,11 @@
       <c r="B57" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -2790,10 +2823,12 @@
       <c r="B59" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>105</v>
       </c>
@@ -2811,7 +2846,9 @@
       <c r="B61" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2821,8 +2858,11 @@
       <c r="B62" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -2841,7 +2881,9 @@
       <c r="B64" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2851,8 +2893,11 @@
       <c r="B65" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>115</v>
       </c>
@@ -2864,7 +2909,7 @@
       </c>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>117</v>
       </c>
@@ -2876,7 +2921,7 @@
       </c>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>119</v>
       </c>
@@ -2887,7 +2932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -2899,7 +2944,7 @@
       </c>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>122</v>
       </c>
@@ -2918,8 +2963,11 @@
       <c r="B71" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>125</v>
       </c>
@@ -2930,7 +2978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>127</v>
       </c>
@@ -2941,7 +2989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>128</v>
       </c>
@@ -2952,7 +3000,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>130</v>
       </c>
@@ -2970,8 +3018,11 @@
       <c r="B76" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>133</v>
       </c>
@@ -2982,7 +3033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>134</v>
       </c>
@@ -2993,7 +3044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>135</v>
       </c>
@@ -3004,7 +3055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>137</v>
       </c>
@@ -3022,6 +3073,9 @@
       <c r="B81" t="s">
         <v>140</v>
       </c>
+      <c r="C81" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -3030,8 +3084,11 @@
       <c r="B82" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>143</v>
       </c>
@@ -3042,7 +3099,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>145</v>
       </c>
@@ -3060,6 +3117,9 @@
       <c r="B85" t="s">
         <v>148</v>
       </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -3068,6 +3128,9 @@
       <c r="B86" t="s">
         <v>150</v>
       </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -3076,6 +3139,9 @@
       <c r="B87" t="s">
         <v>152</v>
       </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -3084,6 +3150,9 @@
       <c r="B88" t="s">
         <v>154</v>
       </c>
+      <c r="C88" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -3092,6 +3161,9 @@
       <c r="B89" t="s">
         <v>156</v>
       </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -3100,8 +3172,11 @@
       <c r="B90" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>159</v>
       </c>
@@ -3112,7 +3187,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>161</v>
       </c>
@@ -3123,7 +3198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>162</v>
       </c>
@@ -3134,7 +3209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>164</v>
       </c>
@@ -3145,7 +3220,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>166</v>
       </c>
@@ -3163,6 +3238,9 @@
       <c r="B96" t="s">
         <v>169</v>
       </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -3171,6 +3249,9 @@
       <c r="B97" t="s">
         <v>171</v>
       </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -3179,8 +3260,11 @@
       <c r="B98" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>174</v>
       </c>
@@ -3198,6 +3282,9 @@
       <c r="B100" t="s">
         <v>177</v>
       </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -3206,6 +3293,9 @@
       <c r="B101" t="s">
         <v>179</v>
       </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -3214,8 +3304,11 @@
       <c r="B102" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>182</v>
       </c>
@@ -3233,8 +3326,11 @@
       <c r="B104" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>185</v>
       </c>
@@ -3245,7 +3341,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>186</v>
       </c>
@@ -3263,6 +3359,9 @@
       <c r="B107" t="s">
         <v>188</v>
       </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -3271,6 +3370,9 @@
       <c r="B108" t="s">
         <v>190</v>
       </c>
+      <c r="C108" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -3279,8 +3381,11 @@
       <c r="B109" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>193</v>
       </c>
@@ -3298,6 +3403,9 @@
       <c r="B111" t="s">
         <v>195</v>
       </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -3306,6 +3414,9 @@
       <c r="B112" t="s">
         <v>197</v>
       </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -3314,6 +3425,9 @@
       <c r="B113" t="s">
         <v>199</v>
       </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -3322,6 +3436,9 @@
       <c r="B114" t="s">
         <v>201</v>
       </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -3330,8 +3447,11 @@
       <c r="B115" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>204</v>
       </c>
@@ -3349,8 +3469,11 @@
       <c r="B117" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>207</v>
       </c>
@@ -3361,7 +3484,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>209</v>
       </c>
@@ -3372,7 +3495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>211</v>
       </c>
@@ -3390,6 +3513,9 @@
       <c r="B121" t="s">
         <v>213</v>
       </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -3398,6 +3524,9 @@
       <c r="B122" t="s">
         <v>215</v>
       </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -3406,8 +3535,11 @@
       <c r="B123" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>218</v>
       </c>
@@ -3425,6 +3557,9 @@
       <c r="B125" t="s">
         <v>221</v>
       </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -3433,6 +3568,9 @@
       <c r="B126" t="s">
         <v>223</v>
       </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -3441,6 +3579,9 @@
       <c r="B127" t="s">
         <v>225</v>
       </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -3449,6 +3590,9 @@
       <c r="B128" t="s">
         <v>227</v>
       </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -3457,6 +3601,9 @@
       <c r="B129" t="s">
         <v>229</v>
       </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -3465,6 +3612,9 @@
       <c r="B130" t="s">
         <v>231</v>
       </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
@@ -3473,6 +3623,9 @@
       <c r="B131" t="s">
         <v>233</v>
       </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
@@ -3481,6 +3634,9 @@
       <c r="B132" t="s">
         <v>235</v>
       </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -3489,6 +3645,9 @@
       <c r="B133" t="s">
         <v>237</v>
       </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
@@ -3497,6 +3656,9 @@
       <c r="B134" t="s">
         <v>239</v>
       </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -3505,8 +3667,11 @@
       <c r="B135" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>242</v>
       </c>
@@ -3524,6 +3689,9 @@
       <c r="B137" t="s">
         <v>245</v>
       </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -3532,8 +3700,11 @@
       <c r="B138" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>248</v>
       </c>
@@ -3551,8 +3722,11 @@
       <c r="B140" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>252</v>
       </c>
@@ -3570,6 +3744,9 @@
       <c r="B142" t="s">
         <v>255</v>
       </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -3578,6 +3755,9 @@
       <c r="B143" t="s">
         <v>257</v>
       </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
@@ -3586,6 +3766,9 @@
       <c r="B144" t="s">
         <v>259</v>
       </c>
+      <c r="C144" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
@@ -3594,8 +3777,11 @@
       <c r="B145" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>262</v>
       </c>
@@ -3613,6 +3799,9 @@
       <c r="B147" t="s">
         <v>265</v>
       </c>
+      <c r="C147" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
@@ -3621,6 +3810,9 @@
       <c r="B148" t="s">
         <v>267</v>
       </c>
+      <c r="C148" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
@@ -3629,8 +3821,11 @@
       <c r="B149" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>270</v>
       </c>
@@ -3648,8 +3843,11 @@
       <c r="B151" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>274</v>
       </c>
@@ -3660,7 +3858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>275</v>
       </c>
@@ -3671,7 +3869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>277</v>
       </c>
@@ -3689,8 +3887,11 @@
       <c r="B155" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>281</v>
       </c>
@@ -3708,8 +3909,11 @@
       <c r="B157" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>285</v>
       </c>
@@ -3720,7 +3924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>287</v>
       </c>
@@ -3738,8 +3942,11 @@
       <c r="B160" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>291</v>
       </c>
@@ -3757,6 +3964,9 @@
       <c r="B162" t="s">
         <v>294</v>
       </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
@@ -3765,6 +3975,9 @@
       <c r="B163" t="s">
         <v>296</v>
       </c>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
@@ -3773,6 +3986,9 @@
       <c r="B164" t="s">
         <v>298</v>
       </c>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
@@ -3781,6 +3997,9 @@
       <c r="B165" t="s">
         <v>300</v>
       </c>
+      <c r="C165" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
@@ -3789,6 +4008,9 @@
       <c r="B166" t="s">
         <v>302</v>
       </c>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
@@ -3797,6 +4019,9 @@
       <c r="B167" t="s">
         <v>304</v>
       </c>
+      <c r="C167" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
@@ -3805,6 +4030,9 @@
       <c r="B168" t="s">
         <v>306</v>
       </c>
+      <c r="C168" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
@@ -3813,8 +4041,11 @@
       <c r="B169" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>309</v>
       </c>
@@ -3825,7 +4056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>311</v>
       </c>
@@ -3843,6 +4074,9 @@
       <c r="B172" t="s">
         <v>314</v>
       </c>
+      <c r="C172" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
@@ -3851,6 +4085,9 @@
       <c r="B173" t="s">
         <v>316</v>
       </c>
+      <c r="C173" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
@@ -3859,6 +4096,9 @@
       <c r="B174" t="s">
         <v>318</v>
       </c>
+      <c r="C174" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
@@ -3867,8 +4107,11 @@
       <c r="B175" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>321</v>
       </c>
@@ -3879,7 +4122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>323</v>
       </c>
@@ -3890,7 +4133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>325</v>
       </c>
@@ -3901,7 +4144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>327</v>
       </c>
@@ -3919,6 +4162,9 @@
       <c r="B180" t="s">
         <v>330</v>
       </c>
+      <c r="C180" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
@@ -3927,6 +4173,9 @@
       <c r="B181" t="s">
         <v>332</v>
       </c>
+      <c r="C181" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
@@ -3935,6 +4184,9 @@
       <c r="B182" t="s">
         <v>334</v>
       </c>
+      <c r="C182" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
@@ -3943,8 +4195,11 @@
       <c r="B183" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>337</v>
       </c>
@@ -3955,7 +4210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>338</v>
       </c>
@@ -3966,7 +4221,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>340</v>
       </c>
@@ -3977,7 +4232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>342</v>
       </c>
@@ -3988,7 +4243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>344</v>
       </c>
@@ -3999,7 +4254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>346</v>
       </c>
@@ -4010,7 +4265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>348</v>
       </c>
@@ -4021,7 +4276,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>349</v>
       </c>
@@ -4032,7 +4287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>351</v>
       </c>
@@ -4043,7 +4298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>352</v>
       </c>
@@ -4054,7 +4309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>353</v>
       </c>
@@ -4072,6 +4327,9 @@
       <c r="B195" t="s">
         <v>356</v>
       </c>
+      <c r="C195" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
@@ -4080,6 +4338,9 @@
       <c r="B196" t="s">
         <v>358</v>
       </c>
+      <c r="C196" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
@@ -4088,6 +4349,9 @@
       <c r="B197" t="s">
         <v>360</v>
       </c>
+      <c r="C197" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
@@ -4096,8 +4360,11 @@
       <c r="B198" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>363</v>
       </c>
@@ -4115,6 +4382,9 @@
       <c r="B200" t="s">
         <v>366</v>
       </c>
+      <c r="C200" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
@@ -4123,6 +4393,9 @@
       <c r="B201" t="s">
         <v>368</v>
       </c>
+      <c r="C201" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
@@ -4131,6 +4404,9 @@
       <c r="B202" t="s">
         <v>370</v>
       </c>
+      <c r="C202" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
@@ -4139,8 +4415,11 @@
       <c r="B203" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>373</v>
       </c>
@@ -4158,8 +4437,11 @@
       <c r="B205" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>377</v>
       </c>
@@ -4177,6 +4459,9 @@
       <c r="B207" t="s">
         <v>380</v>
       </c>
+      <c r="C207" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
@@ -4185,6 +4470,9 @@
       <c r="B208" t="s">
         <v>382</v>
       </c>
+      <c r="C208" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
@@ -4193,8 +4481,11 @@
       <c r="B209" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>385</v>
       </c>
@@ -4212,6 +4503,9 @@
       <c r="B211" t="s">
         <v>388</v>
       </c>
+      <c r="C211" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
@@ -4220,6 +4514,9 @@
       <c r="B212" t="s">
         <v>390</v>
       </c>
+      <c r="C212" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
@@ -4228,6 +4525,9 @@
       <c r="B213" t="s">
         <v>392</v>
       </c>
+      <c r="C213" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
@@ -4236,8 +4536,11 @@
       <c r="B214" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>395</v>
       </c>
@@ -4255,8 +4558,11 @@
       <c r="B216" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>399</v>
       </c>
@@ -4274,6 +4580,9 @@
       <c r="B218" t="s">
         <v>402</v>
       </c>
+      <c r="C218" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
@@ -4282,6 +4591,9 @@
       <c r="B219" t="s">
         <v>404</v>
       </c>
+      <c r="C219" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
@@ -4290,6 +4602,9 @@
       <c r="B220" t="s">
         <v>406</v>
       </c>
+      <c r="C220" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
@@ -4298,6 +4613,9 @@
       <c r="B221" t="s">
         <v>408</v>
       </c>
+      <c r="C221" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
@@ -4306,6 +4624,9 @@
       <c r="B222" t="s">
         <v>410</v>
       </c>
+      <c r="C222" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
@@ -4314,6 +4635,9 @@
       <c r="B223" t="s">
         <v>412</v>
       </c>
+      <c r="C223" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
@@ -4322,6 +4646,9 @@
       <c r="B224" t="s">
         <v>414</v>
       </c>
+      <c r="C224" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
@@ -4330,6 +4657,9 @@
       <c r="B225" t="s">
         <v>416</v>
       </c>
+      <c r="C225" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
@@ -4338,6 +4668,9 @@
       <c r="B226" t="s">
         <v>418</v>
       </c>
+      <c r="C226" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
@@ -4346,8 +4679,11 @@
       <c r="B227" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>421</v>
       </c>
@@ -4365,6 +4701,9 @@
       <c r="B229" t="s">
         <v>424</v>
       </c>
+      <c r="C229" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
@@ -4373,6 +4712,9 @@
       <c r="B230" t="s">
         <v>426</v>
       </c>
+      <c r="C230" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
@@ -4381,6 +4723,9 @@
       <c r="B231" t="s">
         <v>428</v>
       </c>
+      <c r="C231" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
@@ -4389,6 +4734,9 @@
       <c r="B232" t="s">
         <v>430</v>
       </c>
+      <c r="C232" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
@@ -4397,8 +4745,11 @@
       <c r="B233" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>433</v>
       </c>
@@ -4416,6 +4767,9 @@
       <c r="B235" t="s">
         <v>436</v>
       </c>
+      <c r="C235" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
@@ -4424,8 +4778,11 @@
       <c r="B236" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C236" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>439</v>
       </c>
@@ -4436,7 +4793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>441</v>
       </c>
@@ -4454,8 +4811,11 @@
       <c r="B239" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>445</v>
       </c>
@@ -4473,6 +4833,9 @@
       <c r="B241" t="s">
         <v>448</v>
       </c>
+      <c r="C241" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
@@ -4481,8 +4844,11 @@
       <c r="B242" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>451</v>
       </c>
@@ -4493,7 +4859,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>452</v>
       </c>
@@ -4511,6 +4877,9 @@
       <c r="B245" t="s">
         <v>455</v>
       </c>
+      <c r="C245" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
@@ -4519,6 +4888,9 @@
       <c r="B246" t="s">
         <v>457</v>
       </c>
+      <c r="C246" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
@@ -4527,8 +4899,11 @@
       <c r="B247" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>460</v>
       </c>
@@ -4546,6 +4921,9 @@
       <c r="B249" t="s">
         <v>463</v>
       </c>
+      <c r="C249" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
@@ -4554,8 +4932,11 @@
       <c r="B250" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>466</v>
       </c>
@@ -4573,8 +4954,11 @@
       <c r="B252" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>469</v>
       </c>
@@ -4592,8 +4976,11 @@
       <c r="B254" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>472</v>
       </c>
@@ -4604,7 +4991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>474</v>
       </c>
@@ -4622,6 +5009,9 @@
       <c r="B257" t="s">
         <v>477</v>
       </c>
+      <c r="C257" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
@@ -4630,6 +5020,9 @@
       <c r="B258" t="s">
         <v>479</v>
       </c>
+      <c r="C258" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
@@ -4638,6 +5031,9 @@
       <c r="B259" t="s">
         <v>481</v>
       </c>
+      <c r="C259" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
@@ -4646,8 +5042,11 @@
       <c r="B260" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>484</v>
       </c>
@@ -4665,8 +5064,11 @@
       <c r="B262" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>488</v>
       </c>
@@ -4684,6 +5086,9 @@
       <c r="B264" t="s">
         <v>491</v>
       </c>
+      <c r="C264" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
@@ -4692,6 +5097,9 @@
       <c r="B265" t="s">
         <v>493</v>
       </c>
+      <c r="C265" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
@@ -4700,6 +5108,9 @@
       <c r="B266" t="s">
         <v>495</v>
       </c>
+      <c r="C266" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
@@ -4708,6 +5119,9 @@
       <c r="B267" t="s">
         <v>497</v>
       </c>
+      <c r="C267" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
@@ -4716,6 +5130,9 @@
       <c r="B268" t="s">
         <v>499</v>
       </c>
+      <c r="C268" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
@@ -4724,6 +5141,9 @@
       <c r="B269" t="s">
         <v>501</v>
       </c>
+      <c r="C269" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
@@ -4732,6 +5152,9 @@
       <c r="B270" t="s">
         <v>503</v>
       </c>
+      <c r="C270" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
@@ -4740,8 +5163,11 @@
       <c r="B271" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>506</v>
       </c>
@@ -4752,7 +5178,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>508</v>
       </c>
@@ -4770,6 +5196,9 @@
       <c r="B274" t="s">
         <v>511</v>
       </c>
+      <c r="C274" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
@@ -4778,6 +5207,9 @@
       <c r="B275" t="s">
         <v>513</v>
       </c>
+      <c r="C275" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
@@ -4786,6 +5218,9 @@
       <c r="B276" t="s">
         <v>515</v>
       </c>
+      <c r="C276" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
@@ -4794,6 +5229,9 @@
       <c r="B277" t="s">
         <v>517</v>
       </c>
+      <c r="C277" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
@@ -4802,6 +5240,9 @@
       <c r="B278" t="s">
         <v>519</v>
       </c>
+      <c r="C278" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
@@ -4810,6 +5251,9 @@
       <c r="B279" t="s">
         <v>521</v>
       </c>
+      <c r="C279" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
@@ -4818,6 +5262,9 @@
       <c r="B280" t="s">
         <v>523</v>
       </c>
+      <c r="C280" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
@@ -4826,8 +5273,11 @@
       <c r="B281" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C281" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>526</v>
       </c>
@@ -4845,6 +5295,9 @@
       <c r="B283" t="s">
         <v>528</v>
       </c>
+      <c r="C283" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
@@ -4853,6 +5306,9 @@
       <c r="B284" t="s">
         <v>530</v>
       </c>
+      <c r="C284" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
@@ -4861,6 +5317,9 @@
       <c r="B285" t="s">
         <v>532</v>
       </c>
+      <c r="C285" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
@@ -4869,8 +5328,11 @@
       <c r="B286" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>535</v>
       </c>
@@ -4888,8 +5350,11 @@
       <c r="B288" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C288" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>539</v>
       </c>
@@ -4900,7 +5365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>540</v>
       </c>
@@ -4911,7 +5376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>541</v>
       </c>
@@ -4922,7 +5387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>543</v>
       </c>
@@ -4940,6 +5405,9 @@
       <c r="B293" t="s">
         <v>545</v>
       </c>
+      <c r="C293" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
@@ -4948,6 +5416,9 @@
       <c r="B294" t="s">
         <v>547</v>
       </c>
+      <c r="C294" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
@@ -4956,6 +5427,9 @@
       <c r="B295" t="s">
         <v>549</v>
       </c>
+      <c r="C295" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
@@ -4964,6 +5438,9 @@
       <c r="B296" t="s">
         <v>551</v>
       </c>
+      <c r="C296" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
@@ -4972,6 +5449,9 @@
       <c r="B297" t="s">
         <v>553</v>
       </c>
+      <c r="C297" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
@@ -4980,13 +5460,11 @@
       <c r="B298" t="s">
         <v>555</v>
       </c>
+      <c r="C298" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D298" xr:uid="{809D0959-4709-DE49-8CCD-872CF8E778E2}">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/syab07200_field.xlsx
+++ b/syab07200_field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA9D52F-7C88-445C-8C5E-9212C634C7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40775AC6-40A7-4EBD-BD8B-B7165D57D494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16230" yWindow="7965" windowWidth="16065" windowHeight="18390" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
   </bookViews>
@@ -1712,9 +1712,6 @@
     <t>Charstatelabels</t>
   </si>
   <si>
-    <t>NN;00=0;1=11;2=10</t>
-  </si>
-  <si>
     <t>N;0=1;1=0</t>
   </si>
   <si>
@@ -1722,6 +1719,9 @@
   </si>
   <si>
     <t>NT?;0=12;1=11;2=0-;3=13</t>
+  </si>
+  <si>
+    <t>NN;0=00;1=11;2=10</t>
   </si>
 </sst>
 </file>
@@ -2127,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809D0959-4709-DE49-8CCD-872CF8E778E2}">
   <dimension ref="A1:D298"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2205,7 +2205,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -2346,7 +2346,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2418,7 +2418,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2465,7 +2465,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>60</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -2917,7 +2917,7 @@
         <v>118</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D67" s="3"/>
     </row>
@@ -2997,7 +2997,7 @@
         <v>129</v>
       </c>
       <c r="C74" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3008,7 +3008,7 @@
         <v>129</v>
       </c>
       <c r="C75" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3063,7 +3063,7 @@
         <v>138</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3074,7 +3074,7 @@
         <v>140</v>
       </c>
       <c r="C81" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3096,7 +3096,7 @@
         <v>144</v>
       </c>
       <c r="C83" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3151,7 +3151,7 @@
         <v>154</v>
       </c>
       <c r="C88" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3184,7 +3184,7 @@
         <v>160</v>
       </c>
       <c r="C91" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3217,7 +3217,7 @@
         <v>165</v>
       </c>
       <c r="C94" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3338,7 +3338,7 @@
         <v>129</v>
       </c>
       <c r="C105" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3371,7 +3371,7 @@
         <v>190</v>
       </c>
       <c r="C108" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3459,7 +3459,7 @@
         <v>15</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3481,7 +3481,7 @@
         <v>208</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3712,7 +3712,7 @@
         <v>249</v>
       </c>
       <c r="C139" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -4130,7 +4130,7 @@
         <v>324</v>
       </c>
       <c r="C177" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -4163,7 +4163,7 @@
         <v>330</v>
       </c>
       <c r="C180" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -4174,7 +4174,7 @@
         <v>332</v>
       </c>
       <c r="C181" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -4218,7 +4218,7 @@
         <v>339</v>
       </c>
       <c r="C185" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -4273,7 +4273,7 @@
         <v>15</v>
       </c>
       <c r="C190" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -4548,7 +4548,7 @@
         <v>396</v>
       </c>
       <c r="C215" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -4735,7 +4735,7 @@
         <v>430</v>
       </c>
       <c r="C232" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -4856,7 +4856,7 @@
         <v>129</v>
       </c>
       <c r="C243" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -5065,7 +5065,7 @@
         <v>487</v>
       </c>
       <c r="C262" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -5175,7 +5175,7 @@
         <v>507</v>
       </c>
       <c r="C272" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
